--- a/JieLongMod_6/Excel/R人物立绘信息接力第一棒.xlsx
+++ b/JieLongMod_6/Excel/R人物立绘信息接力第一棒.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -47,7 +47,7 @@
     <t>小头像_MiniPortrait</t>
   </si>
   <si>
-    <t>玲</t>
+    <t>铃</t>
   </si>
   <si>
     <t>哲</t>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>战斗修女</t>
+  </si>
+  <si>
+    <t>铃_道观服</t>
+  </si>
+  <si>
+    <t>哲_道观服</t>
   </si>
 </sst>
 </file>
@@ -726,6 +732,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -736,9 +745,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,17 +1139,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="9.6" customWidth="1"/>
@@ -1174,126 +1180,162 @@
       </c>
     </row>
     <row r="2" ht="25.95" customHeight="1" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
-        <v>512</v>
-      </c>
-      <c r="C2" s="5">
-        <v>512</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B2" s="6">
+        <v>512</v>
+      </c>
+      <c r="C2" s="6">
+        <v>512</v>
+      </c>
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>-41</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" ht="25.95" customHeight="1" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
-        <v>512</v>
-      </c>
-      <c r="C3" s="5">
-        <v>512</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="6">
+        <v>512</v>
+      </c>
+      <c r="C3" s="6">
+        <v>512</v>
+      </c>
+      <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>-41</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
-        <v>512</v>
-      </c>
-      <c r="C4" s="5">
-        <v>512</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="6">
+        <v>512</v>
+      </c>
+      <c r="C4" s="6">
+        <v>512</v>
+      </c>
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>-41</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9">
-        <v>512</v>
-      </c>
-      <c r="C5" s="9">
-        <v>512</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="5">
+        <v>512</v>
+      </c>
+      <c r="C5" s="5">
+        <v>512</v>
+      </c>
+      <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>-41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9">
-        <v>512</v>
-      </c>
-      <c r="C6" s="9">
-        <v>512</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="5">
+        <v>512</v>
+      </c>
+      <c r="C6" s="5">
+        <v>512</v>
+      </c>
+      <c r="D6" s="8">
         <v>0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>-41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9">
-        <v>512</v>
-      </c>
-      <c r="C7" s="9">
-        <v>512</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7" s="5">
+        <v>512</v>
+      </c>
+      <c r="C7" s="5">
+        <v>512</v>
+      </c>
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>-41</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9">
-        <v>512</v>
-      </c>
-      <c r="C8" s="9">
-        <v>512</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="B8" s="5">
+        <v>512</v>
+      </c>
+      <c r="C8" s="5">
+        <v>512</v>
+      </c>
+      <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>-10</v>
       </c>
+    </row>
+    <row r="9" ht="25.95" customHeight="1" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>512</v>
+      </c>
+      <c r="C9" s="5">
+        <v>512</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>-41</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" ht="25.95" customHeight="1" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>512</v>
+      </c>
+      <c r="C10" s="5">
+        <v>512</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>-41</v>
+      </c>
+      <c r="F10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
